--- a/MPTrx/_Identity Provider.xlsx
+++ b/MPTrx/_Identity Provider.xlsx
@@ -125,9 +125,6 @@
     <t>[Org (afko)]</t>
   </si>
   <si>
-    <t>autoLoginAccount</t>
-  </si>
-  <si>
     <t>Belastingdienst</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>accIsActive</t>
+  </si>
+  <si>
+    <t>accAutoLoginReq</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -815,10 +815,10 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4"/>
@@ -830,10 +830,10 @@
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
@@ -845,13 +845,13 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -862,13 +862,13 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -879,13 +879,13 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -896,13 +896,13 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -913,13 +913,13 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -930,13 +930,13 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -947,13 +947,13 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -998,90 +998,90 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1101,19 +1101,19 @@
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3" t="str">
         <f>$A26</f>
@@ -1148,25 +1148,25 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>$A27</f>
@@ -1175,25 +1175,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" ref="I28:I34" si="0">$A28</f>
@@ -1202,22 +1202,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1226,22 +1226,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1250,22 +1250,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1298,22 +1298,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1322,25 +1322,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="4" t="str">
         <f>$A34</f>
